--- a/filter data.xlsx
+++ b/filter data.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18730"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\2017_pakar_jiwa\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="20055" windowHeight="8445" firstSheet="30" activeTab="32"/>
   </bookViews>
@@ -41,7 +46,7 @@
     <sheet name="data node 10" sheetId="33" r:id="rId32"/>
     <sheet name="Sheet13" sheetId="34" r:id="rId33"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -384,7 +389,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -492,6 +497,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -513,7 +521,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="3" name="Straight Arrow Connector 2"/>
+        <xdr:cNvPr id="3" name="Straight Arrow Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -560,7 +574,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="5" name="Straight Arrow Connector 4"/>
+        <xdr:cNvPr id="5" name="Straight Arrow Connector 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -607,7 +627,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="Straight Arrow Connector 6"/>
+        <xdr:cNvPr id="7" name="Straight Arrow Connector 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -654,7 +680,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="Straight Arrow Connector 8"/>
+        <xdr:cNvPr id="9" name="Straight Arrow Connector 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -701,7 +733,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="11" name="Straight Arrow Connector 10"/>
+        <xdr:cNvPr id="11" name="Straight Arrow Connector 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -748,7 +786,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="13" name="Straight Arrow Connector 12"/>
+        <xdr:cNvPr id="13" name="Straight Arrow Connector 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -795,7 +839,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="15" name="Straight Arrow Connector 14"/>
+        <xdr:cNvPr id="15" name="Straight Arrow Connector 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -842,7 +892,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="17" name="Straight Arrow Connector 16"/>
+        <xdr:cNvPr id="17" name="Straight Arrow Connector 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -889,7 +945,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="19" name="Straight Arrow Connector 18"/>
+        <xdr:cNvPr id="19" name="Straight Arrow Connector 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -941,7 +1003,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="2" name="Straight Arrow Connector 1"/>
+        <xdr:cNvPr id="2" name="Straight Arrow Connector 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1F00-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -988,7 +1056,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="3" name="Straight Arrow Connector 2"/>
+        <xdr:cNvPr id="3" name="Straight Arrow Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1F00-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1035,7 +1109,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="4" name="Straight Arrow Connector 3"/>
+        <xdr:cNvPr id="4" name="Straight Arrow Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1F00-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1082,7 +1162,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="5" name="Straight Arrow Connector 4"/>
+        <xdr:cNvPr id="5" name="Straight Arrow Connector 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1F00-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1129,7 +1215,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="Straight Arrow Connector 5"/>
+        <xdr:cNvPr id="6" name="Straight Arrow Connector 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1F00-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1176,7 +1268,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="Straight Arrow Connector 6"/>
+        <xdr:cNvPr id="7" name="Straight Arrow Connector 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1F00-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1223,7 +1321,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="Straight Arrow Connector 7"/>
+        <xdr:cNvPr id="8" name="Straight Arrow Connector 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1F00-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1270,7 +1374,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="Straight Arrow Connector 8"/>
+        <xdr:cNvPr id="9" name="Straight Arrow Connector 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1F00-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1317,7 +1427,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="10" name="Straight Arrow Connector 9"/>
+        <xdr:cNvPr id="10" name="Straight Arrow Connector 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1F00-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1364,7 +1480,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="11" name="Straight Arrow Connector 10"/>
+        <xdr:cNvPr id="11" name="Straight Arrow Connector 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1F00-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1411,7 +1533,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="12" name="Straight Arrow Connector 11"/>
+        <xdr:cNvPr id="12" name="Straight Arrow Connector 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1F00-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1458,7 +1586,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="13" name="Straight Arrow Connector 12"/>
+        <xdr:cNvPr id="13" name="Straight Arrow Connector 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1F00-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1505,7 +1639,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="14" name="Straight Arrow Connector 13"/>
+        <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1F00-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1552,7 +1692,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="15" name="Straight Arrow Connector 14"/>
+        <xdr:cNvPr id="15" name="Straight Arrow Connector 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1F00-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1599,7 +1745,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="16" name="Straight Arrow Connector 15"/>
+        <xdr:cNvPr id="16" name="Straight Arrow Connector 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1F00-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1646,7 +1798,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="17" name="Straight Arrow Connector 16"/>
+        <xdr:cNvPr id="17" name="Straight Arrow Connector 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1F00-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1693,7 +1851,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="18" name="Straight Arrow Connector 17"/>
+        <xdr:cNvPr id="18" name="Straight Arrow Connector 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1F00-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1740,7 +1904,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="19" name="Straight Arrow Connector 18"/>
+        <xdr:cNvPr id="19" name="Straight Arrow Connector 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1F00-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1787,7 +1957,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="20" name="Straight Arrow Connector 19"/>
+        <xdr:cNvPr id="20" name="Straight Arrow Connector 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1F00-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1834,7 +2010,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="21" name="Straight Arrow Connector 20"/>
+        <xdr:cNvPr id="21" name="Straight Arrow Connector 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1F00-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1881,7 +2063,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="22" name="Straight Arrow Connector 21"/>
+        <xdr:cNvPr id="22" name="Straight Arrow Connector 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1F00-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1928,7 +2116,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="23" name="Straight Arrow Connector 22"/>
+        <xdr:cNvPr id="23" name="Straight Arrow Connector 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1F00-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1975,7 +2169,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="24" name="Straight Arrow Connector 23"/>
+        <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1F00-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2022,7 +2222,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="25" name="Straight Arrow Connector 24"/>
+        <xdr:cNvPr id="25" name="Straight Arrow Connector 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1F00-000019000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2069,7 +2275,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="26" name="Straight Arrow Connector 25"/>
+        <xdr:cNvPr id="26" name="Straight Arrow Connector 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1F00-00001A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2116,7 +2328,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="27" name="Straight Arrow Connector 26"/>
+        <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1F00-00001B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2163,7 +2381,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="28" name="Straight Arrow Connector 27"/>
+        <xdr:cNvPr id="28" name="Straight Arrow Connector 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1F00-00001C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2210,7 +2434,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="29" name="Straight Arrow Connector 28"/>
+        <xdr:cNvPr id="29" name="Straight Arrow Connector 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1F00-00001D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2257,7 +2487,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="30" name="Straight Arrow Connector 29"/>
+        <xdr:cNvPr id="30" name="Straight Arrow Connector 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1F00-00001E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2304,7 +2540,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="31" name="Straight Arrow Connector 30"/>
+        <xdr:cNvPr id="31" name="Straight Arrow Connector 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1F00-00001F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2351,7 +2593,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="32" name="Straight Arrow Connector 31"/>
+        <xdr:cNvPr id="32" name="Straight Arrow Connector 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1F00-000020000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2398,7 +2646,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="33" name="Straight Arrow Connector 32"/>
+        <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1F00-000021000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2445,7 +2699,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="34" name="Straight Arrow Connector 33"/>
+        <xdr:cNvPr id="34" name="Straight Arrow Connector 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1F00-000022000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2492,7 +2752,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="35" name="Straight Arrow Connector 34"/>
+        <xdr:cNvPr id="35" name="Straight Arrow Connector 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1F00-000023000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2539,7 +2805,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="36" name="Straight Arrow Connector 35"/>
+        <xdr:cNvPr id="36" name="Straight Arrow Connector 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1F00-000024000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2586,7 +2858,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="37" name="Straight Arrow Connector 36"/>
+        <xdr:cNvPr id="37" name="Straight Arrow Connector 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1F00-000025000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2633,7 +2911,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="38" name="Straight Arrow Connector 37"/>
+        <xdr:cNvPr id="38" name="Straight Arrow Connector 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1F00-000026000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2680,7 +2964,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="39" name="Straight Arrow Connector 38"/>
+        <xdr:cNvPr id="39" name="Straight Arrow Connector 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1F00-000027000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2727,7 +3017,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="40" name="Straight Arrow Connector 39"/>
+        <xdr:cNvPr id="40" name="Straight Arrow Connector 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1F00-000028000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2774,7 +3070,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="41" name="Straight Arrow Connector 40"/>
+        <xdr:cNvPr id="41" name="Straight Arrow Connector 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1F00-000029000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2821,7 +3123,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="42" name="Straight Arrow Connector 41"/>
+        <xdr:cNvPr id="42" name="Straight Arrow Connector 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1F00-00002A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2868,7 +3176,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="43" name="Straight Arrow Connector 42"/>
+        <xdr:cNvPr id="43" name="Straight Arrow Connector 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1F00-00002B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2915,7 +3229,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="44" name="Straight Arrow Connector 43"/>
+        <xdr:cNvPr id="44" name="Straight Arrow Connector 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1F00-00002C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2962,7 +3282,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="45" name="Straight Arrow Connector 44"/>
+        <xdr:cNvPr id="45" name="Straight Arrow Connector 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1F00-00002D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -3009,7 +3335,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="46" name="Straight Arrow Connector 45"/>
+        <xdr:cNvPr id="46" name="Straight Arrow Connector 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1F00-00002E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -3056,7 +3388,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="47" name="Straight Arrow Connector 46"/>
+        <xdr:cNvPr id="47" name="Straight Arrow Connector 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1F00-00002F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -3103,7 +3441,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="52" name="Straight Arrow Connector 51"/>
+        <xdr:cNvPr id="52" name="Straight Arrow Connector 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1F00-000034000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -3150,7 +3494,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="57" name="Straight Arrow Connector 56"/>
+        <xdr:cNvPr id="57" name="Straight Arrow Connector 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1F00-000039000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -3197,7 +3547,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="59" name="Straight Arrow Connector 58"/>
+        <xdr:cNvPr id="59" name="Straight Arrow Connector 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1F00-00003B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -3249,7 +3605,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="2" name="Straight Arrow Connector 1"/>
+        <xdr:cNvPr id="2" name="Straight Arrow Connector 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-2000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -3296,7 +3658,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="3" name="Straight Arrow Connector 2"/>
+        <xdr:cNvPr id="3" name="Straight Arrow Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-2000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -3343,7 +3711,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="4" name="Straight Arrow Connector 3"/>
+        <xdr:cNvPr id="4" name="Straight Arrow Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-2000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -3390,7 +3764,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="5" name="Straight Arrow Connector 4"/>
+        <xdr:cNvPr id="5" name="Straight Arrow Connector 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-2000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -3437,7 +3817,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="Straight Arrow Connector 5"/>
+        <xdr:cNvPr id="6" name="Straight Arrow Connector 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-2000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -3484,7 +3870,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="Straight Arrow Connector 6"/>
+        <xdr:cNvPr id="7" name="Straight Arrow Connector 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-2000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -3531,7 +3923,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="Straight Arrow Connector 7"/>
+        <xdr:cNvPr id="8" name="Straight Arrow Connector 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-2000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -3578,7 +3976,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="Straight Arrow Connector 8"/>
+        <xdr:cNvPr id="9" name="Straight Arrow Connector 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-2000-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -3625,7 +4029,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="10" name="Straight Arrow Connector 9"/>
+        <xdr:cNvPr id="10" name="Straight Arrow Connector 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-2000-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -3672,7 +4082,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="11" name="Straight Arrow Connector 10"/>
+        <xdr:cNvPr id="11" name="Straight Arrow Connector 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-2000-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -3719,7 +4135,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="12" name="Straight Arrow Connector 11"/>
+        <xdr:cNvPr id="12" name="Straight Arrow Connector 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-2000-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -3766,7 +4188,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="16" name="Straight Arrow Connector 15"/>
+        <xdr:cNvPr id="16" name="Straight Arrow Connector 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-2000-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -3813,7 +4241,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="17" name="Straight Arrow Connector 16"/>
+        <xdr:cNvPr id="17" name="Straight Arrow Connector 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-2000-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -3860,7 +4294,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="18" name="Straight Arrow Connector 17"/>
+        <xdr:cNvPr id="18" name="Straight Arrow Connector 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-2000-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -3907,7 +4347,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="19" name="Straight Arrow Connector 18"/>
+        <xdr:cNvPr id="19" name="Straight Arrow Connector 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-2000-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -3954,7 +4400,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="20" name="Straight Arrow Connector 19"/>
+        <xdr:cNvPr id="20" name="Straight Arrow Connector 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-2000-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4001,7 +4453,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="21" name="Straight Arrow Connector 20"/>
+        <xdr:cNvPr id="21" name="Straight Arrow Connector 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-2000-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4048,7 +4506,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="22" name="Straight Arrow Connector 21"/>
+        <xdr:cNvPr id="22" name="Straight Arrow Connector 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-2000-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4095,7 +4559,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="23" name="Straight Arrow Connector 22"/>
+        <xdr:cNvPr id="23" name="Straight Arrow Connector 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-2000-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4142,7 +4612,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="24" name="Straight Arrow Connector 23"/>
+        <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-2000-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4189,7 +4665,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="25" name="Straight Arrow Connector 24"/>
+        <xdr:cNvPr id="25" name="Straight Arrow Connector 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-2000-000019000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4236,7 +4718,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="26" name="Straight Arrow Connector 25"/>
+        <xdr:cNvPr id="26" name="Straight Arrow Connector 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-2000-00001A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4283,7 +4771,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="27" name="Straight Arrow Connector 26"/>
+        <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-2000-00001B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4330,7 +4824,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="28" name="Straight Arrow Connector 27"/>
+        <xdr:cNvPr id="28" name="Straight Arrow Connector 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-2000-00001C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4377,7 +4877,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="29" name="Straight Arrow Connector 28"/>
+        <xdr:cNvPr id="29" name="Straight Arrow Connector 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-2000-00001D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4424,7 +4930,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="30" name="Straight Arrow Connector 29"/>
+        <xdr:cNvPr id="30" name="Straight Arrow Connector 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-2000-00001E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4471,7 +4983,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="31" name="Straight Arrow Connector 30"/>
+        <xdr:cNvPr id="31" name="Straight Arrow Connector 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-2000-00001F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4518,7 +5036,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="32" name="Straight Arrow Connector 31"/>
+        <xdr:cNvPr id="32" name="Straight Arrow Connector 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-2000-000020000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4565,7 +5089,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="33" name="Straight Arrow Connector 32"/>
+        <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-2000-000021000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4612,7 +5142,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="34" name="Straight Arrow Connector 33"/>
+        <xdr:cNvPr id="34" name="Straight Arrow Connector 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-2000-000022000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4659,7 +5195,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="35" name="Straight Arrow Connector 34"/>
+        <xdr:cNvPr id="35" name="Straight Arrow Connector 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-2000-000023000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4706,7 +5248,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="36" name="Straight Arrow Connector 35"/>
+        <xdr:cNvPr id="36" name="Straight Arrow Connector 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-2000-000024000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4753,7 +5301,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="37" name="Straight Arrow Connector 36"/>
+        <xdr:cNvPr id="37" name="Straight Arrow Connector 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-2000-000025000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4800,7 +5354,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="38" name="Straight Arrow Connector 37"/>
+        <xdr:cNvPr id="38" name="Straight Arrow Connector 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-2000-000026000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4847,7 +5407,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="39" name="Straight Arrow Connector 38"/>
+        <xdr:cNvPr id="39" name="Straight Arrow Connector 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-2000-000027000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4894,7 +5460,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="40" name="Straight Arrow Connector 39"/>
+        <xdr:cNvPr id="40" name="Straight Arrow Connector 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-2000-000028000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4941,7 +5513,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="41" name="Straight Arrow Connector 40"/>
+        <xdr:cNvPr id="41" name="Straight Arrow Connector 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-2000-000029000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4988,7 +5566,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="42" name="Straight Arrow Connector 41"/>
+        <xdr:cNvPr id="42" name="Straight Arrow Connector 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-2000-00002A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5035,7 +5619,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="43" name="Straight Arrow Connector 42"/>
+        <xdr:cNvPr id="43" name="Straight Arrow Connector 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-2000-00002B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5082,7 +5672,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="44" name="Straight Arrow Connector 43"/>
+        <xdr:cNvPr id="44" name="Straight Arrow Connector 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-2000-00002C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5129,7 +5725,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="45" name="Straight Arrow Connector 44"/>
+        <xdr:cNvPr id="45" name="Straight Arrow Connector 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-2000-00002D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:endCxn id="85" idx="0"/>
         </xdr:cNvCxnSpPr>
@@ -5178,7 +5780,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="46" name="Straight Arrow Connector 45"/>
+        <xdr:cNvPr id="46" name="Straight Arrow Connector 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-2000-00002E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5225,7 +5833,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="47" name="Straight Arrow Connector 46"/>
+        <xdr:cNvPr id="47" name="Straight Arrow Connector 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-2000-00002F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:endCxn id="83" idx="0"/>
         </xdr:cNvCxnSpPr>
@@ -5274,7 +5888,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="48" name="Straight Arrow Connector 47"/>
+        <xdr:cNvPr id="48" name="Straight Arrow Connector 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-2000-000030000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5321,7 +5941,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="49" name="Straight Arrow Connector 48"/>
+        <xdr:cNvPr id="49" name="Straight Arrow Connector 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-2000-000031000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5368,7 +5994,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="50" name="Straight Arrow Connector 49"/>
+        <xdr:cNvPr id="50" name="Straight Arrow Connector 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-2000-000032000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5415,7 +6047,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="62" name="Straight Arrow Connector 61"/>
+        <xdr:cNvPr id="62" name="Straight Arrow Connector 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-2000-00003E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5462,7 +6100,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="64" name="Straight Arrow Connector 63"/>
+        <xdr:cNvPr id="64" name="Straight Arrow Connector 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-2000-000040000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5509,7 +6153,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="66" name="Straight Arrow Connector 65"/>
+        <xdr:cNvPr id="66" name="Straight Arrow Connector 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-2000-000042000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5556,7 +6206,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="68" name="Straight Arrow Connector 67"/>
+        <xdr:cNvPr id="68" name="Straight Arrow Connector 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-2000-000044000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5603,7 +6259,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="70" name="Straight Arrow Connector 69"/>
+        <xdr:cNvPr id="70" name="Straight Arrow Connector 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-2000-000046000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5650,7 +6312,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="71" name="Straight Arrow Connector 70"/>
+        <xdr:cNvPr id="71" name="Straight Arrow Connector 70">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-2000-000047000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5697,7 +6365,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="Oval 12"/>
+        <xdr:cNvPr id="13" name="Oval 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-2000-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5752,7 +6426,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="58" name="Oval 57"/>
+        <xdr:cNvPr id="58" name="Oval 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-2000-00003A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5807,7 +6487,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="60" name="Oval 59"/>
+        <xdr:cNvPr id="60" name="Oval 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-2000-00003C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5862,7 +6548,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="63" name="Oval 62"/>
+        <xdr:cNvPr id="63" name="Oval 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-2000-00003F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5917,7 +6609,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="65" name="Oval 64"/>
+        <xdr:cNvPr id="65" name="Oval 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-2000-000041000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5972,7 +6670,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="67" name="Oval 66"/>
+        <xdr:cNvPr id="67" name="Oval 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-2000-000043000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6027,7 +6731,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="72" name="Oval 71"/>
+        <xdr:cNvPr id="72" name="Oval 71">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-2000-000048000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6082,7 +6792,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="74" name="Rectangle 73"/>
+        <xdr:cNvPr id="74" name="Rectangle 73">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-2000-00004A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6093,6 +6809,9 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -6142,7 +6861,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="77" name="Rectangle 76"/>
+        <xdr:cNvPr id="77" name="Rectangle 76">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-2000-00004D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6153,6 +6878,9 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -6197,7 +6925,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="78" name="Rectangle 77"/>
+        <xdr:cNvPr id="78" name="Rectangle 77">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-2000-00004E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6208,6 +6942,9 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -6252,7 +6989,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="79" name="Rectangle 78"/>
+        <xdr:cNvPr id="79" name="Rectangle 78">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-2000-00004F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6263,6 +7006,9 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -6307,7 +7053,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="80" name="Rectangle 79"/>
+        <xdr:cNvPr id="80" name="Rectangle 79">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-2000-000050000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6362,7 +7114,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="81" name="Rectangle 80"/>
+        <xdr:cNvPr id="81" name="Rectangle 80">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-2000-000051000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6417,7 +7175,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="82" name="Rectangle 81"/>
+        <xdr:cNvPr id="82" name="Rectangle 81">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-2000-000052000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6472,7 +7236,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="83" name="Rectangle 82"/>
+        <xdr:cNvPr id="83" name="Rectangle 82">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-2000-000053000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6527,7 +7297,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="84" name="Rectangle 83"/>
+        <xdr:cNvPr id="84" name="Rectangle 83">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-2000-000054000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6582,7 +7358,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="85" name="Rectangle 84"/>
+        <xdr:cNvPr id="85" name="Rectangle 84">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-2000-000055000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6637,7 +7419,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="88" name="Rectangle 87"/>
+        <xdr:cNvPr id="88" name="Rectangle 87">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-2000-000058000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6692,7 +7480,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="89" name="Rectangle 88"/>
+        <xdr:cNvPr id="89" name="Rectangle 88">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-2000-000059000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6703,6 +7497,9 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -6747,7 +7544,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="90" name="Rectangle 89"/>
+        <xdr:cNvPr id="90" name="Rectangle 89">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-2000-00005A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6758,6 +7561,9 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -6802,7 +7608,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="91" name="Rectangle 90"/>
+        <xdr:cNvPr id="91" name="Rectangle 90">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-2000-00005B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6813,6 +7625,9 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -6857,7 +7672,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="92" name="Rectangle 91"/>
+        <xdr:cNvPr id="92" name="Rectangle 91">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-2000-00005C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6912,7 +7733,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="93" name="Rectangle 92"/>
+        <xdr:cNvPr id="93" name="Rectangle 92">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-2000-00005D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6967,7 +7794,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="94" name="Rectangle 93"/>
+        <xdr:cNvPr id="94" name="Rectangle 93">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-2000-00005E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6978,6 +7811,9 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -7022,7 +7858,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="95" name="Rectangle 94"/>
+        <xdr:cNvPr id="95" name="Rectangle 94">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-2000-00005F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7033,6 +7875,9 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -7082,7 +7927,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="96" name="Rectangle 95"/>
+        <xdr:cNvPr id="96" name="Rectangle 95">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-2000-000060000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7093,6 +7944,9 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -7142,7 +7996,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="97" name="Rectangle 96"/>
+        <xdr:cNvPr id="97" name="Rectangle 96">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-2000-000061000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7153,6 +8013,9 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -7207,7 +8070,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="Straight Arrow Connector 8"/>
+        <xdr:cNvPr id="9" name="Straight Arrow Connector 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -7254,7 +8123,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="10" name="Straight Arrow Connector 9"/>
+        <xdr:cNvPr id="10" name="Straight Arrow Connector 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -7301,7 +8176,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="11" name="Straight Arrow Connector 10"/>
+        <xdr:cNvPr id="11" name="Straight Arrow Connector 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -7348,7 +8229,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="12" name="Straight Arrow Connector 11"/>
+        <xdr:cNvPr id="12" name="Straight Arrow Connector 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -7395,7 +8282,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="13" name="Straight Arrow Connector 12"/>
+        <xdr:cNvPr id="13" name="Straight Arrow Connector 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -7442,7 +8335,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="14" name="Straight Arrow Connector 13"/>
+        <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -7489,7 +8388,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="15" name="Straight Arrow Connector 14"/>
+        <xdr:cNvPr id="15" name="Straight Arrow Connector 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -7536,7 +8441,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="16" name="Straight Arrow Connector 15"/>
+        <xdr:cNvPr id="16" name="Straight Arrow Connector 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -7583,7 +8494,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="17" name="Straight Arrow Connector 16"/>
+        <xdr:cNvPr id="17" name="Straight Arrow Connector 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -7630,7 +8547,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="20" name="Straight Arrow Connector 19"/>
+        <xdr:cNvPr id="20" name="Straight Arrow Connector 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -7682,7 +8605,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="2" name="Straight Arrow Connector 1"/>
+        <xdr:cNvPr id="2" name="Straight Arrow Connector 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -7729,7 +8658,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="3" name="Straight Arrow Connector 2"/>
+        <xdr:cNvPr id="3" name="Straight Arrow Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -7776,7 +8711,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="4" name="Straight Arrow Connector 3"/>
+        <xdr:cNvPr id="4" name="Straight Arrow Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -7823,7 +8764,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="5" name="Straight Arrow Connector 4"/>
+        <xdr:cNvPr id="5" name="Straight Arrow Connector 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -7870,7 +8817,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="Straight Arrow Connector 5"/>
+        <xdr:cNvPr id="6" name="Straight Arrow Connector 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -7917,7 +8870,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="Straight Arrow Connector 6"/>
+        <xdr:cNvPr id="7" name="Straight Arrow Connector 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -7964,7 +8923,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="Straight Arrow Connector 7"/>
+        <xdr:cNvPr id="8" name="Straight Arrow Connector 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -8011,7 +8976,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="Straight Arrow Connector 8"/>
+        <xdr:cNvPr id="9" name="Straight Arrow Connector 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -8058,7 +9029,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="10" name="Straight Arrow Connector 9"/>
+        <xdr:cNvPr id="10" name="Straight Arrow Connector 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -8105,7 +9082,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="11" name="Straight Arrow Connector 10"/>
+        <xdr:cNvPr id="11" name="Straight Arrow Connector 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -8152,7 +9135,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="21" name="Straight Arrow Connector 20"/>
+        <xdr:cNvPr id="21" name="Straight Arrow Connector 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -8199,7 +9188,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="23" name="Straight Arrow Connector 22"/>
+        <xdr:cNvPr id="23" name="Straight Arrow Connector 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -8246,7 +9241,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="25" name="Straight Arrow Connector 24"/>
+        <xdr:cNvPr id="25" name="Straight Arrow Connector 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000019000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -8293,7 +9294,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="27" name="Straight Arrow Connector 26"/>
+        <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-00001B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -8345,7 +9352,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="2" name="Straight Arrow Connector 1"/>
+        <xdr:cNvPr id="2" name="Straight Arrow Connector 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -8392,7 +9405,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="3" name="Straight Arrow Connector 2"/>
+        <xdr:cNvPr id="3" name="Straight Arrow Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -8439,7 +9458,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="4" name="Straight Arrow Connector 3"/>
+        <xdr:cNvPr id="4" name="Straight Arrow Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -8486,7 +9511,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="5" name="Straight Arrow Connector 4"/>
+        <xdr:cNvPr id="5" name="Straight Arrow Connector 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -8533,7 +9564,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="Straight Arrow Connector 5"/>
+        <xdr:cNvPr id="6" name="Straight Arrow Connector 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -8580,7 +9617,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="Straight Arrow Connector 6"/>
+        <xdr:cNvPr id="7" name="Straight Arrow Connector 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -8627,7 +9670,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="Straight Arrow Connector 7"/>
+        <xdr:cNvPr id="8" name="Straight Arrow Connector 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -8674,7 +9723,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="Straight Arrow Connector 8"/>
+        <xdr:cNvPr id="9" name="Straight Arrow Connector 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -8721,7 +9776,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="10" name="Straight Arrow Connector 9"/>
+        <xdr:cNvPr id="10" name="Straight Arrow Connector 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -8768,7 +9829,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="11" name="Straight Arrow Connector 10"/>
+        <xdr:cNvPr id="11" name="Straight Arrow Connector 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -8815,7 +9882,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="12" name="Straight Arrow Connector 11"/>
+        <xdr:cNvPr id="12" name="Straight Arrow Connector 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -8862,7 +9935,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="13" name="Straight Arrow Connector 12"/>
+        <xdr:cNvPr id="13" name="Straight Arrow Connector 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -8909,7 +9988,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="14" name="Straight Arrow Connector 13"/>
+        <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -8956,7 +10041,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="15" name="Straight Arrow Connector 14"/>
+        <xdr:cNvPr id="15" name="Straight Arrow Connector 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -9003,7 +10094,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="17" name="Straight Arrow Connector 16"/>
+        <xdr:cNvPr id="17" name="Straight Arrow Connector 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -9050,7 +10147,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="19" name="Straight Arrow Connector 18"/>
+        <xdr:cNvPr id="19" name="Straight Arrow Connector 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -9097,7 +10200,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="21" name="Straight Arrow Connector 20"/>
+        <xdr:cNvPr id="21" name="Straight Arrow Connector 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -9144,7 +10253,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="23" name="Straight Arrow Connector 22"/>
+        <xdr:cNvPr id="23" name="Straight Arrow Connector 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -9191,7 +10306,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="31" name="Straight Arrow Connector 30"/>
+        <xdr:cNvPr id="31" name="Straight Arrow Connector 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-00001F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -9238,7 +10359,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="33" name="Straight Arrow Connector 32"/>
+        <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000021000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -9290,7 +10417,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="2" name="Straight Arrow Connector 1"/>
+        <xdr:cNvPr id="2" name="Straight Arrow Connector 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -9337,7 +10470,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="3" name="Straight Arrow Connector 2"/>
+        <xdr:cNvPr id="3" name="Straight Arrow Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -9384,7 +10523,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="4" name="Straight Arrow Connector 3"/>
+        <xdr:cNvPr id="4" name="Straight Arrow Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -9431,7 +10576,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="5" name="Straight Arrow Connector 4"/>
+        <xdr:cNvPr id="5" name="Straight Arrow Connector 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -9478,7 +10629,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="Straight Arrow Connector 5"/>
+        <xdr:cNvPr id="6" name="Straight Arrow Connector 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -9525,7 +10682,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="Straight Arrow Connector 6"/>
+        <xdr:cNvPr id="7" name="Straight Arrow Connector 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -9572,7 +10735,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="Straight Arrow Connector 7"/>
+        <xdr:cNvPr id="8" name="Straight Arrow Connector 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -9619,7 +10788,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="Straight Arrow Connector 8"/>
+        <xdr:cNvPr id="9" name="Straight Arrow Connector 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -9666,7 +10841,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="10" name="Straight Arrow Connector 9"/>
+        <xdr:cNvPr id="10" name="Straight Arrow Connector 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -9713,7 +10894,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="11" name="Straight Arrow Connector 10"/>
+        <xdr:cNvPr id="11" name="Straight Arrow Connector 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -9760,7 +10947,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="12" name="Straight Arrow Connector 11"/>
+        <xdr:cNvPr id="12" name="Straight Arrow Connector 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -9807,7 +11000,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="13" name="Straight Arrow Connector 12"/>
+        <xdr:cNvPr id="13" name="Straight Arrow Connector 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -9854,7 +11053,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="14" name="Straight Arrow Connector 13"/>
+        <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -9901,7 +11106,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="15" name="Straight Arrow Connector 14"/>
+        <xdr:cNvPr id="15" name="Straight Arrow Connector 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -9948,7 +11159,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="16" name="Straight Arrow Connector 15"/>
+        <xdr:cNvPr id="16" name="Straight Arrow Connector 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -9995,7 +11212,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="17" name="Straight Arrow Connector 16"/>
+        <xdr:cNvPr id="17" name="Straight Arrow Connector 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -10042,7 +11265,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="18" name="Straight Arrow Connector 17"/>
+        <xdr:cNvPr id="18" name="Straight Arrow Connector 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -10089,7 +11318,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="19" name="Straight Arrow Connector 18"/>
+        <xdr:cNvPr id="19" name="Straight Arrow Connector 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -10136,7 +11371,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="20" name="Straight Arrow Connector 19"/>
+        <xdr:cNvPr id="20" name="Straight Arrow Connector 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -10183,7 +11424,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="21" name="Straight Arrow Connector 20"/>
+        <xdr:cNvPr id="21" name="Straight Arrow Connector 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -10230,7 +11477,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="25" name="Straight Arrow Connector 24"/>
+        <xdr:cNvPr id="25" name="Straight Arrow Connector 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-000019000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -10277,7 +11530,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="27" name="Straight Arrow Connector 26"/>
+        <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-00001B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -10324,7 +11583,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="29" name="Straight Arrow Connector 28"/>
+        <xdr:cNvPr id="29" name="Straight Arrow Connector 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-00001D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -10371,7 +11636,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="31" name="Straight Arrow Connector 30"/>
+        <xdr:cNvPr id="31" name="Straight Arrow Connector 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1000-00001F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -10423,7 +11694,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="2" name="Straight Arrow Connector 1"/>
+        <xdr:cNvPr id="2" name="Straight Arrow Connector 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -10470,7 +11747,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="3" name="Straight Arrow Connector 2"/>
+        <xdr:cNvPr id="3" name="Straight Arrow Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1300-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -10517,7 +11800,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="4" name="Straight Arrow Connector 3"/>
+        <xdr:cNvPr id="4" name="Straight Arrow Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1300-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -10564,7 +11853,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="5" name="Straight Arrow Connector 4"/>
+        <xdr:cNvPr id="5" name="Straight Arrow Connector 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1300-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -10611,7 +11906,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="Straight Arrow Connector 5"/>
+        <xdr:cNvPr id="6" name="Straight Arrow Connector 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1300-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -10658,7 +11959,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="Straight Arrow Connector 6"/>
+        <xdr:cNvPr id="7" name="Straight Arrow Connector 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1300-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -10705,7 +12012,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="Straight Arrow Connector 7"/>
+        <xdr:cNvPr id="8" name="Straight Arrow Connector 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1300-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -10752,7 +12065,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="Straight Arrow Connector 8"/>
+        <xdr:cNvPr id="9" name="Straight Arrow Connector 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1300-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -10799,7 +12118,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="10" name="Straight Arrow Connector 9"/>
+        <xdr:cNvPr id="10" name="Straight Arrow Connector 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1300-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -10846,7 +12171,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="11" name="Straight Arrow Connector 10"/>
+        <xdr:cNvPr id="11" name="Straight Arrow Connector 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1300-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -10893,7 +12224,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="12" name="Straight Arrow Connector 11"/>
+        <xdr:cNvPr id="12" name="Straight Arrow Connector 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1300-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -10940,7 +12277,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="13" name="Straight Arrow Connector 12"/>
+        <xdr:cNvPr id="13" name="Straight Arrow Connector 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1300-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -10987,7 +12330,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="14" name="Straight Arrow Connector 13"/>
+        <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1300-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -11034,7 +12383,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="15" name="Straight Arrow Connector 14"/>
+        <xdr:cNvPr id="15" name="Straight Arrow Connector 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1300-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -11081,7 +12436,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="16" name="Straight Arrow Connector 15"/>
+        <xdr:cNvPr id="16" name="Straight Arrow Connector 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1300-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -11128,7 +12489,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="17" name="Straight Arrow Connector 16"/>
+        <xdr:cNvPr id="17" name="Straight Arrow Connector 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1300-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -11175,7 +12542,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="18" name="Straight Arrow Connector 17"/>
+        <xdr:cNvPr id="18" name="Straight Arrow Connector 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1300-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -11222,7 +12595,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="19" name="Straight Arrow Connector 18"/>
+        <xdr:cNvPr id="19" name="Straight Arrow Connector 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1300-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -11269,7 +12648,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="20" name="Straight Arrow Connector 19"/>
+        <xdr:cNvPr id="20" name="Straight Arrow Connector 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1300-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -11316,7 +12701,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="21" name="Straight Arrow Connector 20"/>
+        <xdr:cNvPr id="21" name="Straight Arrow Connector 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1300-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -11363,7 +12754,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="22" name="Straight Arrow Connector 21"/>
+        <xdr:cNvPr id="22" name="Straight Arrow Connector 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1300-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -11410,7 +12807,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="23" name="Straight Arrow Connector 22"/>
+        <xdr:cNvPr id="23" name="Straight Arrow Connector 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1300-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -11457,7 +12860,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="24" name="Straight Arrow Connector 23"/>
+        <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1300-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -11504,7 +12913,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="25" name="Straight Arrow Connector 24"/>
+        <xdr:cNvPr id="25" name="Straight Arrow Connector 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1300-000019000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -11551,7 +12966,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="34" name="Straight Arrow Connector 33"/>
+        <xdr:cNvPr id="34" name="Straight Arrow Connector 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1300-000022000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -11598,7 +13019,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="36" name="Straight Arrow Connector 35"/>
+        <xdr:cNvPr id="36" name="Straight Arrow Connector 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1300-000024000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -11645,7 +13072,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="38" name="Straight Arrow Connector 37"/>
+        <xdr:cNvPr id="38" name="Straight Arrow Connector 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1300-000026000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -11692,7 +13125,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="40" name="Straight Arrow Connector 39"/>
+        <xdr:cNvPr id="40" name="Straight Arrow Connector 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1300-000028000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -11739,7 +13178,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="42" name="Straight Arrow Connector 41"/>
+        <xdr:cNvPr id="42" name="Straight Arrow Connector 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1300-00002A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -11786,7 +13231,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="44" name="Straight Arrow Connector 43"/>
+        <xdr:cNvPr id="44" name="Straight Arrow Connector 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1300-00002C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -11833,7 +13284,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="46" name="Straight Arrow Connector 45"/>
+        <xdr:cNvPr id="46" name="Straight Arrow Connector 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1300-00002E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -11885,7 +13342,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="2" name="Straight Arrow Connector 1"/>
+        <xdr:cNvPr id="2" name="Straight Arrow Connector 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1600-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -11932,7 +13395,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="3" name="Straight Arrow Connector 2"/>
+        <xdr:cNvPr id="3" name="Straight Arrow Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1600-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -11979,7 +13448,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="4" name="Straight Arrow Connector 3"/>
+        <xdr:cNvPr id="4" name="Straight Arrow Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1600-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -12026,7 +13501,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="5" name="Straight Arrow Connector 4"/>
+        <xdr:cNvPr id="5" name="Straight Arrow Connector 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1600-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -12073,7 +13554,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="Straight Arrow Connector 5"/>
+        <xdr:cNvPr id="6" name="Straight Arrow Connector 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1600-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -12120,7 +13607,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="Straight Arrow Connector 6"/>
+        <xdr:cNvPr id="7" name="Straight Arrow Connector 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1600-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -12167,7 +13660,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="Straight Arrow Connector 7"/>
+        <xdr:cNvPr id="8" name="Straight Arrow Connector 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1600-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -12214,7 +13713,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="Straight Arrow Connector 8"/>
+        <xdr:cNvPr id="9" name="Straight Arrow Connector 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1600-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -12261,7 +13766,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="10" name="Straight Arrow Connector 9"/>
+        <xdr:cNvPr id="10" name="Straight Arrow Connector 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1600-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -12308,7 +13819,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="11" name="Straight Arrow Connector 10"/>
+        <xdr:cNvPr id="11" name="Straight Arrow Connector 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1600-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -12355,7 +13872,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="12" name="Straight Arrow Connector 11"/>
+        <xdr:cNvPr id="12" name="Straight Arrow Connector 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1600-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -12402,7 +13925,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="13" name="Straight Arrow Connector 12"/>
+        <xdr:cNvPr id="13" name="Straight Arrow Connector 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1600-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -12449,7 +13978,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="14" name="Straight Arrow Connector 13"/>
+        <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1600-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -12496,7 +14031,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="15" name="Straight Arrow Connector 14"/>
+        <xdr:cNvPr id="15" name="Straight Arrow Connector 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1600-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -12543,7 +14084,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="16" name="Straight Arrow Connector 15"/>
+        <xdr:cNvPr id="16" name="Straight Arrow Connector 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1600-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -12590,7 +14137,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="17" name="Straight Arrow Connector 16"/>
+        <xdr:cNvPr id="17" name="Straight Arrow Connector 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1600-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -12637,7 +14190,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="18" name="Straight Arrow Connector 17"/>
+        <xdr:cNvPr id="18" name="Straight Arrow Connector 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1600-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -12684,7 +14243,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="19" name="Straight Arrow Connector 18"/>
+        <xdr:cNvPr id="19" name="Straight Arrow Connector 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1600-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -12731,7 +14296,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="20" name="Straight Arrow Connector 19"/>
+        <xdr:cNvPr id="20" name="Straight Arrow Connector 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1600-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -12778,7 +14349,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="21" name="Straight Arrow Connector 20"/>
+        <xdr:cNvPr id="21" name="Straight Arrow Connector 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1600-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -12825,7 +14402,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="22" name="Straight Arrow Connector 21"/>
+        <xdr:cNvPr id="22" name="Straight Arrow Connector 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1600-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -12872,7 +14455,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="23" name="Straight Arrow Connector 22"/>
+        <xdr:cNvPr id="23" name="Straight Arrow Connector 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1600-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -12919,7 +14508,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="24" name="Straight Arrow Connector 23"/>
+        <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1600-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -12966,7 +14561,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="25" name="Straight Arrow Connector 24"/>
+        <xdr:cNvPr id="25" name="Straight Arrow Connector 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1600-000019000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -13013,7 +14614,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="26" name="Straight Arrow Connector 25"/>
+        <xdr:cNvPr id="26" name="Straight Arrow Connector 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1600-00001A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -13060,7 +14667,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="27" name="Straight Arrow Connector 26"/>
+        <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1600-00001B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -13107,7 +14720,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="28" name="Straight Arrow Connector 27"/>
+        <xdr:cNvPr id="28" name="Straight Arrow Connector 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1600-00001C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -13154,7 +14773,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="29" name="Straight Arrow Connector 28"/>
+        <xdr:cNvPr id="29" name="Straight Arrow Connector 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1600-00001D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -13201,7 +14826,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="30" name="Straight Arrow Connector 29"/>
+        <xdr:cNvPr id="30" name="Straight Arrow Connector 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1600-00001E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -13248,7 +14879,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="31" name="Straight Arrow Connector 30"/>
+        <xdr:cNvPr id="31" name="Straight Arrow Connector 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1600-00001F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -13295,7 +14932,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="32" name="Straight Arrow Connector 31"/>
+        <xdr:cNvPr id="32" name="Straight Arrow Connector 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1600-000020000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -13342,7 +14985,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="40" name="Straight Arrow Connector 39"/>
+        <xdr:cNvPr id="40" name="Straight Arrow Connector 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1600-000028000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -13394,7 +15043,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="2" name="Straight Arrow Connector 1"/>
+        <xdr:cNvPr id="2" name="Straight Arrow Connector 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1900-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -13441,7 +15096,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="3" name="Straight Arrow Connector 2"/>
+        <xdr:cNvPr id="3" name="Straight Arrow Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1900-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -13488,7 +15149,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="4" name="Straight Arrow Connector 3"/>
+        <xdr:cNvPr id="4" name="Straight Arrow Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1900-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -13535,7 +15202,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="5" name="Straight Arrow Connector 4"/>
+        <xdr:cNvPr id="5" name="Straight Arrow Connector 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1900-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -13582,7 +15255,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="Straight Arrow Connector 5"/>
+        <xdr:cNvPr id="6" name="Straight Arrow Connector 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1900-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -13629,7 +15308,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="Straight Arrow Connector 6"/>
+        <xdr:cNvPr id="7" name="Straight Arrow Connector 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1900-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -13676,7 +15361,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="Straight Arrow Connector 7"/>
+        <xdr:cNvPr id="8" name="Straight Arrow Connector 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1900-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -13723,7 +15414,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="Straight Arrow Connector 8"/>
+        <xdr:cNvPr id="9" name="Straight Arrow Connector 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1900-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -13770,7 +15467,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="10" name="Straight Arrow Connector 9"/>
+        <xdr:cNvPr id="10" name="Straight Arrow Connector 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1900-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -13817,7 +15520,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="11" name="Straight Arrow Connector 10"/>
+        <xdr:cNvPr id="11" name="Straight Arrow Connector 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1900-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -13864,7 +15573,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="12" name="Straight Arrow Connector 11"/>
+        <xdr:cNvPr id="12" name="Straight Arrow Connector 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1900-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -13911,7 +15626,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="13" name="Straight Arrow Connector 12"/>
+        <xdr:cNvPr id="13" name="Straight Arrow Connector 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1900-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -13958,7 +15679,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="14" name="Straight Arrow Connector 13"/>
+        <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1900-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -14005,7 +15732,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="15" name="Straight Arrow Connector 14"/>
+        <xdr:cNvPr id="15" name="Straight Arrow Connector 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1900-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -14052,7 +15785,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="16" name="Straight Arrow Connector 15"/>
+        <xdr:cNvPr id="16" name="Straight Arrow Connector 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1900-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -14099,7 +15838,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="17" name="Straight Arrow Connector 16"/>
+        <xdr:cNvPr id="17" name="Straight Arrow Connector 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1900-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -14146,7 +15891,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="18" name="Straight Arrow Connector 17"/>
+        <xdr:cNvPr id="18" name="Straight Arrow Connector 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1900-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -14193,7 +15944,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="19" name="Straight Arrow Connector 18"/>
+        <xdr:cNvPr id="19" name="Straight Arrow Connector 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1900-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -14240,7 +15997,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="20" name="Straight Arrow Connector 19"/>
+        <xdr:cNvPr id="20" name="Straight Arrow Connector 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1900-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -14287,7 +16050,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="21" name="Straight Arrow Connector 20"/>
+        <xdr:cNvPr id="21" name="Straight Arrow Connector 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1900-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -14334,7 +16103,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="22" name="Straight Arrow Connector 21"/>
+        <xdr:cNvPr id="22" name="Straight Arrow Connector 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1900-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -14381,7 +16156,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="23" name="Straight Arrow Connector 22"/>
+        <xdr:cNvPr id="23" name="Straight Arrow Connector 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1900-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -14428,7 +16209,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="24" name="Straight Arrow Connector 23"/>
+        <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1900-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -14475,7 +16262,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="25" name="Straight Arrow Connector 24"/>
+        <xdr:cNvPr id="25" name="Straight Arrow Connector 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1900-000019000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -14522,7 +16315,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="26" name="Straight Arrow Connector 25"/>
+        <xdr:cNvPr id="26" name="Straight Arrow Connector 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1900-00001A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -14569,7 +16368,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="27" name="Straight Arrow Connector 26"/>
+        <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1900-00001B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -14616,7 +16421,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="28" name="Straight Arrow Connector 27"/>
+        <xdr:cNvPr id="28" name="Straight Arrow Connector 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1900-00001C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -14663,7 +16474,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="29" name="Straight Arrow Connector 28"/>
+        <xdr:cNvPr id="29" name="Straight Arrow Connector 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1900-00001D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -14710,7 +16527,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="30" name="Straight Arrow Connector 29"/>
+        <xdr:cNvPr id="30" name="Straight Arrow Connector 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1900-00001E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -14757,7 +16580,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="31" name="Straight Arrow Connector 30"/>
+        <xdr:cNvPr id="31" name="Straight Arrow Connector 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1900-00001F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -14804,7 +16633,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="32" name="Straight Arrow Connector 31"/>
+        <xdr:cNvPr id="32" name="Straight Arrow Connector 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1900-000020000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -14851,7 +16686,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="33" name="Straight Arrow Connector 32"/>
+        <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1900-000021000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -14898,7 +16739,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="40" name="Straight Arrow Connector 39"/>
+        <xdr:cNvPr id="40" name="Straight Arrow Connector 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1900-000028000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -14945,7 +16792,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="42" name="Straight Arrow Connector 41"/>
+        <xdr:cNvPr id="42" name="Straight Arrow Connector 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1900-00002A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -14992,7 +16845,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="44" name="Straight Arrow Connector 43"/>
+        <xdr:cNvPr id="44" name="Straight Arrow Connector 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1900-00002C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -15039,7 +16898,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="46" name="Straight Arrow Connector 45"/>
+        <xdr:cNvPr id="46" name="Straight Arrow Connector 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1900-00002E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -15086,7 +16951,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="48" name="Straight Arrow Connector 47"/>
+        <xdr:cNvPr id="48" name="Straight Arrow Connector 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1900-000030000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -15133,7 +17004,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="50" name="Straight Arrow Connector 49"/>
+        <xdr:cNvPr id="50" name="Straight Arrow Connector 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1900-000032000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -15180,7 +17057,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="52" name="Straight Arrow Connector 51"/>
+        <xdr:cNvPr id="52" name="Straight Arrow Connector 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1900-000034000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -15232,7 +17115,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="2" name="Straight Arrow Connector 1"/>
+        <xdr:cNvPr id="2" name="Straight Arrow Connector 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1C00-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -15279,7 +17168,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="3" name="Straight Arrow Connector 2"/>
+        <xdr:cNvPr id="3" name="Straight Arrow Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1C00-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -15326,7 +17221,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="4" name="Straight Arrow Connector 3"/>
+        <xdr:cNvPr id="4" name="Straight Arrow Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1C00-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -15373,7 +17274,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="5" name="Straight Arrow Connector 4"/>
+        <xdr:cNvPr id="5" name="Straight Arrow Connector 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1C00-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -15420,7 +17327,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="Straight Arrow Connector 5"/>
+        <xdr:cNvPr id="6" name="Straight Arrow Connector 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1C00-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -15467,7 +17380,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="Straight Arrow Connector 6"/>
+        <xdr:cNvPr id="7" name="Straight Arrow Connector 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1C00-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -15514,7 +17433,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="Straight Arrow Connector 7"/>
+        <xdr:cNvPr id="8" name="Straight Arrow Connector 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1C00-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -15561,7 +17486,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="Straight Arrow Connector 8"/>
+        <xdr:cNvPr id="9" name="Straight Arrow Connector 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1C00-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -15608,7 +17539,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="10" name="Straight Arrow Connector 9"/>
+        <xdr:cNvPr id="10" name="Straight Arrow Connector 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1C00-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -15655,7 +17592,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="11" name="Straight Arrow Connector 10"/>
+        <xdr:cNvPr id="11" name="Straight Arrow Connector 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1C00-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -15702,7 +17645,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="12" name="Straight Arrow Connector 11"/>
+        <xdr:cNvPr id="12" name="Straight Arrow Connector 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1C00-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -15749,7 +17698,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="13" name="Straight Arrow Connector 12"/>
+        <xdr:cNvPr id="13" name="Straight Arrow Connector 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1C00-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -15796,7 +17751,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="14" name="Straight Arrow Connector 13"/>
+        <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1C00-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -15843,7 +17804,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="15" name="Straight Arrow Connector 14"/>
+        <xdr:cNvPr id="15" name="Straight Arrow Connector 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1C00-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -15890,7 +17857,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="16" name="Straight Arrow Connector 15"/>
+        <xdr:cNvPr id="16" name="Straight Arrow Connector 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1C00-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -15937,7 +17910,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="17" name="Straight Arrow Connector 16"/>
+        <xdr:cNvPr id="17" name="Straight Arrow Connector 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1C00-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -15984,7 +17963,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="18" name="Straight Arrow Connector 17"/>
+        <xdr:cNvPr id="18" name="Straight Arrow Connector 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1C00-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -16031,7 +18016,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="19" name="Straight Arrow Connector 18"/>
+        <xdr:cNvPr id="19" name="Straight Arrow Connector 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1C00-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -16078,7 +18069,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="20" name="Straight Arrow Connector 19"/>
+        <xdr:cNvPr id="20" name="Straight Arrow Connector 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1C00-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -16125,7 +18122,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="21" name="Straight Arrow Connector 20"/>
+        <xdr:cNvPr id="21" name="Straight Arrow Connector 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1C00-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -16172,7 +18175,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="22" name="Straight Arrow Connector 21"/>
+        <xdr:cNvPr id="22" name="Straight Arrow Connector 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1C00-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -16219,7 +18228,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="23" name="Straight Arrow Connector 22"/>
+        <xdr:cNvPr id="23" name="Straight Arrow Connector 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1C00-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -16266,7 +18281,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="24" name="Straight Arrow Connector 23"/>
+        <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1C00-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -16313,7 +18334,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="25" name="Straight Arrow Connector 24"/>
+        <xdr:cNvPr id="25" name="Straight Arrow Connector 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1C00-000019000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -16360,7 +18387,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="26" name="Straight Arrow Connector 25"/>
+        <xdr:cNvPr id="26" name="Straight Arrow Connector 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1C00-00001A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -16407,7 +18440,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="27" name="Straight Arrow Connector 26"/>
+        <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1C00-00001B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -16454,7 +18493,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="28" name="Straight Arrow Connector 27"/>
+        <xdr:cNvPr id="28" name="Straight Arrow Connector 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1C00-00001C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -16501,7 +18546,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="29" name="Straight Arrow Connector 28"/>
+        <xdr:cNvPr id="29" name="Straight Arrow Connector 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1C00-00001D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -16548,7 +18599,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="30" name="Straight Arrow Connector 29"/>
+        <xdr:cNvPr id="30" name="Straight Arrow Connector 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1C00-00001E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -16595,7 +18652,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="31" name="Straight Arrow Connector 30"/>
+        <xdr:cNvPr id="31" name="Straight Arrow Connector 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1C00-00001F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -16642,7 +18705,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="32" name="Straight Arrow Connector 31"/>
+        <xdr:cNvPr id="32" name="Straight Arrow Connector 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1C00-000020000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -16689,7 +18758,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="33" name="Straight Arrow Connector 32"/>
+        <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1C00-000021000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -16736,7 +18811,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="34" name="Straight Arrow Connector 33"/>
+        <xdr:cNvPr id="34" name="Straight Arrow Connector 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1C00-000022000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -16783,7 +18864,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="35" name="Straight Arrow Connector 34"/>
+        <xdr:cNvPr id="35" name="Straight Arrow Connector 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1C00-000023000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -16830,7 +18917,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="36" name="Straight Arrow Connector 35"/>
+        <xdr:cNvPr id="36" name="Straight Arrow Connector 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1C00-000024000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -16877,7 +18970,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="37" name="Straight Arrow Connector 36"/>
+        <xdr:cNvPr id="37" name="Straight Arrow Connector 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1C00-000025000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -16924,7 +19023,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="39" name="Straight Arrow Connector 38"/>
+        <xdr:cNvPr id="39" name="Straight Arrow Connector 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1C00-000027000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -16971,7 +19076,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="41" name="Straight Arrow Connector 40"/>
+        <xdr:cNvPr id="41" name="Straight Arrow Connector 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1C00-000029000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -17018,7 +19129,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="43" name="Straight Arrow Connector 42"/>
+        <xdr:cNvPr id="43" name="Straight Arrow Connector 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1C00-00002B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -17065,7 +19182,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="49" name="Straight Arrow Connector 48"/>
+        <xdr:cNvPr id="49" name="Straight Arrow Connector 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1C00-000031000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -17112,7 +19235,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="51" name="Straight Arrow Connector 50"/>
+        <xdr:cNvPr id="51" name="Straight Arrow Connector 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1C00-000033000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -17159,7 +19288,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="53" name="Straight Arrow Connector 52"/>
+        <xdr:cNvPr id="53" name="Straight Arrow Connector 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1C00-000035000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -17206,7 +19341,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="55" name="Straight Arrow Connector 54"/>
+        <xdr:cNvPr id="55" name="Straight Arrow Connector 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1C00-000037000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -17253,7 +19394,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="57" name="Straight Arrow Connector 56"/>
+        <xdr:cNvPr id="57" name="Straight Arrow Connector 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1C00-000039000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -17300,7 +19447,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="59" name="Straight Arrow Connector 58"/>
+        <xdr:cNvPr id="59" name="Straight Arrow Connector 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1C00-00003B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -17347,7 +19500,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="61" name="Straight Arrow Connector 60"/>
+        <xdr:cNvPr id="61" name="Straight Arrow Connector 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1C00-00003D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -17425,7 +19584,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -17458,9 +19617,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -17493,6 +19669,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -28904,8 +31097,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="Z9" sqref="Z9"/>
+    <sheetView tabSelected="1" topLeftCell="B7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30151,7 +32344,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>

--- a/filter data.xlsx
+++ b/filter data.xlsx
@@ -7070,6 +7070,9 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -7131,6 +7134,9 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -7192,6 +7198,9 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -7253,6 +7262,9 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -7314,6 +7326,9 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -7375,6 +7390,9 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -7436,6 +7454,9 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -7689,6 +7710,9 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -7750,6 +7774,9 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -31097,8 +31124,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/filter data.xlsx
+++ b/filter data.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19001"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -6810,7 +6810,1136 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="accent2"/>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="id-ID" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Tumbuh</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="id-ID" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> Kenbang</a:t>
+          </a:r>
+          <a:endParaRPr lang="id-ID" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1023258</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>70757</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>111578</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>125186</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="77" name="Rectangle 76">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-2000-00004D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1023258" y="5595257"/>
+          <a:ext cx="775606" cy="435429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="id-ID" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Psikosis</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>508908</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>59871</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>73479</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="78" name="Rectangle 77">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-2000-00004E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2196194" y="5584371"/>
+          <a:ext cx="775606" cy="435429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="id-ID" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Psikosis</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>470808</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>62592</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>185056</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>117021</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="79" name="Rectangle 78">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-2000-00004F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6607629" y="5587092"/>
+          <a:ext cx="775606" cy="435429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="id-ID" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Psikosis</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>391885</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>65313</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>65313</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>119742</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="80" name="Rectangle 79">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-2000-000050000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7590064" y="4446813"/>
+          <a:ext cx="775606" cy="435429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="id-ID" sz="1100"/>
+            <a:t>Psikosis</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>163286</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>54427</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>938892</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>108856</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="81" name="Rectangle 80">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-2000-000051000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13280572" y="4435927"/>
+          <a:ext cx="775606" cy="435429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="id-ID" sz="1100"/>
+            <a:t>Psikosis</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>138794</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>97970</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>914400</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="82" name="Rectangle 81">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-2000-000052000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14290223" y="4479470"/>
+          <a:ext cx="775606" cy="435429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="id-ID" sz="1100"/>
+            <a:t>Psikosis</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>87086</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>73477</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>19049</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>127906</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="83" name="Rectangle 82">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-2000-000053000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16946336" y="4454977"/>
+          <a:ext cx="775606" cy="435429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="id-ID" sz="1100"/>
+            <a:t>Psikosis</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>498022</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>21771</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>130628</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="84" name="Rectangle 83">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-2000-000054000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16105415" y="4457699"/>
+          <a:ext cx="775606" cy="435429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="id-ID" sz="1100"/>
+            <a:t>Neurosis</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>1126672</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>78920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>446314</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="85" name="Rectangle 84">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-2000-000055000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15278101" y="4460420"/>
+          <a:ext cx="775606" cy="435429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="id-ID" sz="1100"/>
+            <a:t>Neurosis</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>1170214</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>54428</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>54427</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>108857</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="88" name="Rectangle 87">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-2000-000058000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12396107" y="4435928"/>
+          <a:ext cx="775606" cy="435429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="id-ID" sz="1100"/>
+            <a:t>Neurosis</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>340179</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>54429</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>40821</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>108858</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="89" name="Rectangle 88">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-2000-000059000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5402036" y="5578929"/>
+          <a:ext cx="775606" cy="435429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="id-ID" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Neurosis</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2722</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>43542</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>111580</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="90" name="Rectangle 89">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-2000-00005A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4329793" y="4438651"/>
+          <a:ext cx="775606" cy="435429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="id-ID" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Neurosis</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>242208</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>65313</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>24492</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>119742</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="91" name="Rectangle 90">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-2000-00005B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3140529" y="4446813"/>
+          <a:ext cx="775606" cy="435429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="id-ID" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Psikosis</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>367393</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>81642</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>1142999</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>136071</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="92" name="Rectangle 91">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-2000-00005C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8667750" y="4463142"/>
+          <a:ext cx="775606" cy="435429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="id-ID" sz="1100"/>
+            <a:t>Disolder</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>1023256</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>111578</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="93" name="Rectangle 92">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-2000-00005D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9935936" y="4438649"/>
+          <a:ext cx="775606" cy="435429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="id-ID" sz="1100"/>
+            <a:t>Psikosis</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>617764</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>32656</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>1393370</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>87085</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="94" name="Rectangle 93">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-2000-00005E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18320657" y="3271156"/>
+          <a:ext cx="775606" cy="435429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="id-ID" sz="1100"/>
+            <a:t>Psikosis</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>220436</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>29936</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>996042</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>84365</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="95" name="Rectangle 94">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-2000-00005F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11446329" y="3268436"/>
+          <a:ext cx="775606" cy="435429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="92D050"/>
         </a:solidFill>
       </xdr:spPr>
       <xdr:style>
@@ -6848,1099 +7977,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1023258</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>70757</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>111578</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>125186</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="77" name="Rectangle 76">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-2000-00004D000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1023258" y="5595257"/>
-          <a:ext cx="775606" cy="435429"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent2"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent5"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent5"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="id-ID" sz="1100"/>
-            <a:t>Psikosis</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>508908</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>59871</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>73479</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="78" name="Rectangle 77">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-2000-00004E000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2196194" y="5584371"/>
-          <a:ext cx="775606" cy="435429"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent2"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent5"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent5"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="id-ID" sz="1100"/>
-            <a:t>Psikosis</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>470808</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>62592</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>185056</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>117021</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="79" name="Rectangle 78">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-2000-00004F000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6607629" y="5587092"/>
-          <a:ext cx="775606" cy="435429"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent2"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent5"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent5"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="id-ID" sz="1100"/>
-            <a:t>Psikosis</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>391885</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>65313</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>65313</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>119742</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="80" name="Rectangle 79">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-2000-000050000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7590064" y="4446813"/>
-          <a:ext cx="775606" cy="435429"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent2"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent5"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent5"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="id-ID" sz="1100"/>
-            <a:t>Psikosis</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>163286</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>54427</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>938892</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>108856</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="81" name="Rectangle 80">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-2000-000051000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13280572" y="4435927"/>
-          <a:ext cx="775606" cy="435429"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent2"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent5"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent5"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="id-ID" sz="1100"/>
-            <a:t>Psikosis</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>138794</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>97970</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>914400</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>152399</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="82" name="Rectangle 81">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-2000-000052000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="14290223" y="4479470"/>
-          <a:ext cx="775606" cy="435429"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent2"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent5"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent5"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="id-ID" sz="1100"/>
-            <a:t>Psikosis</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>87086</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>73477</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>19049</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>127906</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="83" name="Rectangle 82">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-2000-000053000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="16946336" y="4454977"/>
-          <a:ext cx="775606" cy="435429"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent2"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent5"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent5"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="id-ID" sz="1100"/>
-            <a:t>Psikosis</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>498022</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>76199</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>21771</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>130628</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="84" name="Rectangle 83">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-2000-000054000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="16105415" y="4457699"/>
-          <a:ext cx="775606" cy="435429"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent2"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent5"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent5"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="id-ID" sz="1100"/>
-            <a:t>Neurosis</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>1126672</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>78920</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>446314</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>133349</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="85" name="Rectangle 84">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-2000-000055000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="15278101" y="4460420"/>
-          <a:ext cx="775606" cy="435429"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent2"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent5"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent5"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="id-ID" sz="1100"/>
-            <a:t>Neurosis</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>1170214</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>54428</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>54427</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>108857</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="88" name="Rectangle 87">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-2000-000058000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12396107" y="4435928"/>
-          <a:ext cx="775606" cy="435429"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent2"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent5"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent5"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="id-ID" sz="1100"/>
-            <a:t>Neurosis</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>340179</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>54429</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>40821</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>108858</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="89" name="Rectangle 88">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-2000-000059000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5402036" y="5578929"/>
-          <a:ext cx="775606" cy="435429"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent2"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent5"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent5"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="id-ID" sz="1100"/>
-            <a:t>Neurosis</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>2722</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>57151</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>43542</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>111580</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="90" name="Rectangle 89">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-2000-00005A000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4329793" y="4438651"/>
-          <a:ext cx="775606" cy="435429"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent2"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent5"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent5"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="id-ID" sz="1100"/>
-            <a:t>Neurosis</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>242208</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>65313</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>24492</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>119742</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="91" name="Rectangle 90">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-2000-00005B000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3140529" y="4446813"/>
-          <a:ext cx="775606" cy="435429"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent2"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent5"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent5"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="id-ID" sz="1100"/>
-            <a:t>Psikosis</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>367393</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>81642</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>1142999</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>136071</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="92" name="Rectangle 91">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-2000-00005C000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8667750" y="4463142"/>
-          <a:ext cx="775606" cy="435429"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent2"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent5"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent5"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="id-ID" sz="1100"/>
-            <a:t>Disolder</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>57149</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>1023256</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>111578</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="93" name="Rectangle 92">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-2000-00005D000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9935936" y="4438649"/>
-          <a:ext cx="775606" cy="435429"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent2"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent5"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent5"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="id-ID" sz="1100"/>
-            <a:t>Psikosis</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>617764</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>32656</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>1393370</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>87085</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="94" name="Rectangle 93">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-2000-00005E000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="18320657" y="3271156"/>
-          <a:ext cx="775606" cy="435429"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent2"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent5"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent5"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="id-ID" sz="1100"/>
-            <a:t>Psikosis</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>220436</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>29936</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>996042</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>84365</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="95" name="Rectangle 94">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-2000-00005F000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11446329" y="3268436"/>
-          <a:ext cx="775606" cy="435429"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent2"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent5"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent5"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="id-ID" sz="1100"/>
-            <a:t>Tumbuh</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="id-ID" sz="1100" baseline="0"/>
-            <a:t> Kenbang</a:t>
-          </a:r>
-          <a:endParaRPr lang="id-ID" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>28</xdr:col>
       <xdr:colOff>244929</xdr:colOff>
       <xdr:row>17</xdr:row>
@@ -7972,7 +8008,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="accent2"/>
+          <a:srgbClr val="92D050"/>
         </a:solidFill>
       </xdr:spPr>
       <xdr:style>
@@ -8041,7 +8077,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="accent2"/>
+          <a:srgbClr val="92D050"/>
         </a:solidFill>
       </xdr:spPr>
       <xdr:style>
@@ -31124,8 +31160,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/filter data.xlsx
+++ b/filter data.xlsx
@@ -31160,8 +31160,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
